--- a/正常样本1.xlsx
+++ b/正常样本1.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[314465, 3263080]</t>
+          <t>[318450, 3212690]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.00295, 358.78323]</t>
+          <t>[0.01222, 13.15915]</t>
         </is>
       </c>
     </row>
@@ -471,12 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[318450, 3212690]</t>
+          <t>[314465, 3263080]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.01222, 13.15915]</t>
+          <t>[0.00295, 358.78323]</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[316224, 3193722]</t>
+          <t>[321089, 3167772]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.00627, 20.27234]</t>
+          <t>[0.01935, 25.47065]</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[321089, 3167772]</t>
+          <t>[316224, 3193722]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.01935, 25.47065]</t>
+          <t>[0.00627, 20.27234]</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[312968, 3182476]</t>
+          <t>[318354, 3234435]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.00895, 23.72169]</t>
+          <t>[0.01752, 20.30769]</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[318354, 3234435]</t>
+          <t>[312968, 3182476]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.01752, 20.30769]</t>
+          <t>[0.00895, 23.72169]</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[315648, 3309652]</t>
+          <t>[315100, 3223472]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.00936, 361.45375]</t>
+          <t>[0.00075, 13.3182]</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[324539, 3152775]</t>
+          <t>[315648, 3309652]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[0.00378, 26.13643]</t>
+          <t>[0.00936, 361.45375]</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[315100, 3223472]</t>
+          <t>[324539, 3152775]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.00075, 13.3182]</t>
+          <t>[0.00378, 26.13643]</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[325680, 3143329]</t>
+          <t>[323950, 3234964]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.00051, 19.86562]</t>
+          <t>[0.01314, 47.63111]</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[315588, 3216492]</t>
+          <t>[323950, 3163424]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.00595, 12.83023]</t>
+          <t>[0.00175, 10.5909]</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[325557, 3111336]</t>
+          <t>[325680, 3143329]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[0.00509, 11.84485]</t>
+          <t>[0.00051, 19.86562]</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[323950, 3234964]</t>
+          <t>[315588, 3216492]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.01314, 47.63111]</t>
+          <t>[0.00595, 12.83023]</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[318936, 3228551]</t>
+          <t>[325557, 3111336]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[0.0049, 15.75934]</t>
+          <t>[0.00509, 11.84485]</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[323950, 3163424]</t>
+          <t>[318936, 3228551]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[0.00175, 10.5909]</t>
+          <t>[0.0049, 15.75934]</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[323950, 3206772]</t>
+          <t>[325717, 3196232]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0.00154, 11.70544]</t>
+          <t>[0.00019, 12.71986]</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[325717, 3196232]</t>
+          <t>[324576, 3216282]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[0.00019, 12.71986]</t>
+          <t>[0.00538, 14.64127]</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[324576, 3216282]</t>
+          <t>[323950, 3206772]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[0.00538, 14.64127]</t>
+          <t>[0.00154, 11.70544]</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[319550, 3231828]</t>
+          <t>[322850, 3195192]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[0.0163, 146.50759]</t>
+          <t>[0.01211, 25.07339]</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[326860, 3145226]</t>
+          <t>[319550, 3231828]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[0.01323, 18.31931]</t>
+          <t>[0.0163, 146.50759]</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[321676, 3145155]</t>
+          <t>[326860, 3145226]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[0.00399, 28.50025]</t>
+          <t>[0.01323, 18.31931]</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[322850, 3195192]</t>
+          <t>[322300, 3249528]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[0.01211, 25.07339]</t>
+          <t>[0.01364, 15.83592]</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[322300, 3249528]</t>
+          <t>[321676, 3145155]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[0.01364, 15.83592]</t>
+          <t>[0.00399, 28.50025]</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[323950, 3243807]</t>
+          <t>[322399, 3236800]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[0.01278, 15.60823]</t>
+          <t>[0.01596, 16.19648]</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[322399, 3236800]</t>
+          <t>[323950, 3243807]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[0.01596, 16.19648]</t>
+          <t>[0.01278, 15.60823]</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[315520, 3206115]</t>
+          <t>[319995, 3202968]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[0.00441, 15.3752]</t>
+          <t>[0.00356, 13.5954]</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[319995, 3202968]</t>
+          <t>[315520, 3206115]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[0.00356, 13.5954]</t>
+          <t>[0.00441, 15.3752]</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[322300, 3079197]</t>
+          <t>[323277, 3188430]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[0.00786, 10.21731]</t>
+          <t>[0.007, 8.60445]</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[314577, 3269154]</t>
+          <t>[322300, 3079197]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[0.0011, 91.84237]</t>
+          <t>[0.00786, 10.21731]</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[323277, 3188430]</t>
+          <t>[326895, 3254640]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[0.007, 8.60445]</t>
+          <t>[0.02244, 20.75401]</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[326895, 3254640]</t>
+          <t>[314577, 3269154]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[0.02244, 20.75401]</t>
+          <t>[0.0011, 91.84237]</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[329035, 3199572]</t>
+          <t>[322850, 3150444]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[0.00143, 10.76198]</t>
+          <t>[0.01733, 48.37307]</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[322850, 3150444]</t>
+          <t>[329035, 3199572]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[0.01733, 48.37307]</t>
+          <t>[0.00143, 10.76198]</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[325164, 3211209]</t>
+          <t>[313375, 3240960]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.01956, 13.68416]</t>
+          <t>[0.01661, 43.25792]</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[313375, 3240960]</t>
+          <t>[325164, 3211209]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.01661, 43.25792]</t>
+          <t>[0.01956, 13.68416]</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[318450, 3203986]</t>
+          <t>[318570, 3223857]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.00662, 21.16319]</t>
+          <t>[0.00234, 19.0124]</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[318570, 3223857]</t>
+          <t>[318450, 3203986]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[0.00234, 19.0124]</t>
+          <t>[0.00662, 21.16319]</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[326784, 3181076]</t>
+          <t>[326270, 3165534]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.00246, 9.54475]</t>
+          <t>[0.00139, 9.14155]</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[326270, 3165534]</t>
+          <t>[326784, 3181076]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[0.00139, 9.14155]</t>
+          <t>[0.00246, 9.54475]</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[322772, 3088362]</t>
+          <t>[323988, 3222945]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[0.00131, 9.12513]</t>
+          <t>[0.00511, 35.45191]</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[323988, 3222945]</t>
+          <t>[322263, 3173098]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[0.00511, 35.45191]</t>
+          <t>[0.01954, 9.52746]</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[322263, 3173098]</t>
+          <t>[322772, 3088362]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[0.01954, 9.52746]</t>
+          <t>[0.00131, 9.12513]</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[317927, 3223046]</t>
+          <t>[323988, 3160320]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[0.01011, 16.38548]</t>
+          <t>[0.01027, 66.07437]</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[323988, 3160320]</t>
+          <t>[317927, 3223046]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[0.01027, 66.07437]</t>
+          <t>[0.01011, 16.38548]</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[324964, 3195790]</t>
+          <t>[323232, 3241214]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[0.00865, 8.8391]</t>
+          <t>[0.0068, 292.80441]</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[323472, 3210576]</t>
+          <t>[324964, 3195790]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[0.01904, 15.17696]</t>
+          <t>[0.00865, 8.8391]</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[323232, 3241214]</t>
+          <t>[321636, 3180452]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[0.0068, 292.80441]</t>
+          <t>[0.02609, 10.19662]</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[321636, 3180452]</t>
+          <t>[321676, 3188268]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[0.02609, 10.19662]</t>
+          <t>[0.00048, 21.36173]</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[321676, 3188268]</t>
+          <t>[323472, 3210576]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[0.00048, 21.36173]</t>
+          <t>[0.01904, 15.17696]</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[303600, 3290265]</t>
+          <t>[320682, 3220086]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[0.01873, 135.10614]</t>
+          <t>[0.01184, 15.01122]</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[320682, 3220086]</t>
+          <t>[323950, 3184854]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[0.01184, 15.01122]</t>
+          <t>[0.01786, 8.27442]</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[292645, 3180560]</t>
+          <t>[303600, 3290265]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[0.00485, 28.40564]</t>
+          <t>[0.01873, 135.10614]</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[323950, 3184854]</t>
+          <t>[292645, 3180560]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[0.01786, 8.27442]</t>
+          <t>[0.00485, 28.40564]</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[323868, 3227038]</t>
+          <t>[326192, 3130533]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[0.01703, 57.59219]</t>
+          <t>[0.00421, 15.40297]</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[326192, 3130533]</t>
+          <t>[323868, 3227038]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[0.00421, 15.40297]</t>
+          <t>[0.01703, 57.59219]</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[325680, 3194299]</t>
+          <t>[321048, 3220560]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[0.00026, 9.79084]</t>
+          <t>[0.00798, 41.61683]</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[321048, 3220560]</t>
+          <t>[325680, 3194299]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[0.00798, 41.61683]</t>
+          <t>[0.00026, 9.79084]</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[319000, 3203460]</t>
+          <t>[319550, 3225318]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[0.01082, 50.11169]</t>
+          <t>[0.00183, 18.95216]</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[320616, 3135984]</t>
+          <t>[319000, 3203460]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[0.00845, 10.73729]</t>
+          <t>[0.01082, 50.11169]</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[319550, 3225318]</t>
+          <t>[323472, 3213735]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[0.00183, 18.95216]</t>
+          <t>[0.01484, 12.1511]</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[323472, 3213735]</t>
+          <t>[320616, 3135984]</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[0.01484, 12.1511]</t>
+          <t>[0.00845, 10.73729]</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[326823, 3103492]</t>
+          <t>[323988, 3194760]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[0.01801, 14.30605]</t>
+          <t>[0.00915, 9.34004]</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[322263, 3197277]</t>
+          <t>[326823, 3103492]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[0.004, 9.42444]</t>
+          <t>[0.01801, 14.30605]</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[323988, 3194760]</t>
+          <t>[322263, 3197277]</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[0.00915, 9.34004]</t>
+          <t>[0.004, 9.42444]</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[325128, 3209100]</t>
+          <t>[325680, 3200655]</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[0.00315, 13.87052]</t>
+          <t>[0.00179, 12.37147]</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[326784, 3162980]</t>
+          <t>[325128, 3209100]</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[0.00634, 15.50235]</t>
+          <t>[0.00315, 13.87052]</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[325680, 3200655]</t>
+          <t>[326784, 3162980]</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[0.00179, 12.37147]</t>
+          <t>[0.00634, 15.50235]</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2076,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[324539, 3178700]</t>
+          <t>[314192, 3226428]</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[0.00721, 15.58125]</t>
+          <t>[0.0062, 29.3042]</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[321784, 3242712]</t>
+          <t>[324539, 3178700]</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[0.01964, 12.26571]</t>
+          <t>[0.00721, 15.58125]</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[314192, 3226428]</t>
+          <t>[324964, 3136144]</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[0.0062, 29.3042]</t>
+          <t>[0.00043, 25.26649]</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[319328, 3226311]</t>
+          <t>[321784, 3242712]</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[0.01682, 39.12903]</t>
+          <t>[0.01964, 12.26571]</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[324964, 3136144]</t>
+          <t>[323400, 3195178]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[0.00043, 25.26649]</t>
+          <t>[0.01716, 10.83432]</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[329544, 3123692]</t>
+          <t>[319328, 3226311]</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[0.00255, 11.11887]</t>
+          <t>[0.01682, 39.12903]</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[323400, 3195178]</t>
+          <t>[329544, 3123692]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[0.01716, 10.83432]</t>
+          <t>[0.00255, 11.11887]</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[320650, 3205300]</t>
+          <t>[324371, 3241872]</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[0.01079, 15.71239]</t>
+          <t>[0.00708, 29.03816]</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[323437, 3151152]</t>
+          <t>[320650, 3205300]</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[0.00596, 15.8048]</t>
+          <t>[0.01079, 15.71239]</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[324371, 3241872]</t>
+          <t>[323437, 3151152]</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[0.00708, 29.03816]</t>
+          <t>[0.00596, 15.8048]</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[322772, 3157299]</t>
+          <t>[321816, 3237988]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[0.01167, 33.32978]</t>
+          <t>[0.01249, 12.39621]</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[321816, 3237988]</t>
+          <t>[320067, 3250400]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[0.01249, 12.39621]</t>
+          <t>[0.01745, 19.46499]</t>
         </is>
       </c>
     </row>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[322686, 3177475]</t>
+          <t>[322772, 3157299]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[0.00773, 13.90497]</t>
+          <t>[0.01167, 33.32978]</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[320067, 3250400]</t>
+          <t>[321264, 3255284]</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[0.01745, 19.46499]</t>
+          <t>[0.00343, 21.04088]</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[321264, 3255284]</t>
+          <t>[322686, 3177475]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[0.00343, 21.04088]</t>
+          <t>[0.00773, 13.90497]</t>
         </is>
       </c>
     </row>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[316800, 3212478]</t>
+          <t>[312381, 3233748]</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[0.01161, 10.77513]</t>
+          <t>[0.0158, 16.54831]</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[312381, 3233748]</t>
+          <t>[316800, 3212478]</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[0.0158, 16.54831]</t>
+          <t>[0.01161, 10.77513]</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[322850, 3190117]</t>
+          <t>[316224, 3202080]</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[0.00913, 8.49027]</t>
+          <t>[0.01467, 12.88223]</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[316224, 3202080]</t>
+          <t>[322850, 3190117]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[0.01467, 12.88223]</t>
+          <t>[0.00913, 8.49027]</t>
         </is>
       </c>
     </row>
